--- a/test.xlsx
+++ b/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23256" windowHeight="9720"/>
+    <workbookView windowWidth="15491" windowHeight="4032"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <oleSize ref="A1:G3"/>
 </workbook>
 </file>
 
@@ -42,7 +43,7 @@
     <t>快递帮拿</t>
   </si>
   <si>
-    <t>/user/courier_help</t>
+    <t>/campushelp/help_express</t>
   </si>
   <si>
     <t>post</t>
@@ -50,11 +51,11 @@
   <si>
     <t>{
    String name // 取件姓名
-   Int telephone //电话号码
-   String site //送达地址
-   String courier_name //快递名称
-   Int take_num //取件码
-   String take_site //取件地址
+   String exName //快递名称
+   String receive_site //送达地址
+   String telephone //电话号码
+   String pickup_site //取件地址
+   String pickup_num //取件码
 }</t>
   </si>
   <si>
@@ -75,13 +76,16 @@
     <t>网上购水</t>
   </si>
   <si>
-    <t>/user/online_buy_water</t>
+    <t>/campushelp/water_purchase</t>
   </si>
   <si>
     <t>{
-   String name //姓名
-   Int telephone //电话号码
-   Int dormitory //寝室
+   Int wpID  //编号
+   Int uID  //用户编号
+   String wpName //联系人姓名
+   Int wp_num //数量
+   String dormitory //寝室
+   String telephone //电话号码
 }</t>
   </si>
 </sst>
@@ -90,12 +94,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,6 +109,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -112,9 +123,102 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -126,22 +230,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,107 +247,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,187 +261,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,26 +455,28 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,12 +505,25 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -532,21 +544,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -560,148 +557,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1063,7 +1060,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="6"/>
@@ -1122,7 +1119,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" ht="72" spans="1:7">
+    <row r="3" ht="115.2" spans="1:7">
       <c r="A3" t="s">
         <v>14</v>
       </c>

--- a/test.xlsx
+++ b/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15491" windowHeight="4032"/>
+    <workbookView windowWidth="21996" windowHeight="7584"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="35">
   <si>
     <t>描述</t>
   </si>
@@ -40,16 +40,18 @@
     <t>备注</t>
   </si>
   <si>
-    <t>快递帮拿</t>
-  </si>
-  <si>
-    <t>/campushelp/help_express</t>
-  </si>
-  <si>
-    <t>post</t>
+    <t>查询所有快递信息</t>
+  </si>
+  <si>
+    <t>/campushelp/gethelp_expressList</t>
+  </si>
+  <si>
+    <t>get</t>
   </si>
   <si>
     <t>{
+   Int heID  //编号
+   Int uID //用户编号
    String name // 取件姓名
    String exName //快递名称
    String receive_site //送达地址
@@ -59,6 +61,27 @@
 }</t>
   </si>
   <si>
+    <t>[
+   {xxxxxx},{xxxxxx}
+]</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>// 成功 [{xxx}]
+// 失败 []</t>
+  </si>
+  <si>
+    <t>按编号(heID) 添加（创建）新的快递信息</t>
+  </si>
+  <si>
+    <t>/campushelp/water_purchase</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
     <t>{
    String state; //1
 }</t>
@@ -73,10 +96,27 @@
 //2 失败（该任务已存在）</t>
   </si>
   <si>
-    <t>网上购水</t>
-  </si>
-  <si>
-    <t>/campushelp/water_purchase</t>
+    <t>按编号(heID) 删除快递信息</t>
+  </si>
+  <si>
+    <t>/campushelp/deletehelp_express</t>
+  </si>
+  <si>
+    <t>{
+   Int heID //编号
+}</t>
+  </si>
+  <si>
+    <t>按编号(heID) 修改快递信息</t>
+  </si>
+  <si>
+    <t>/campushelp/updatehelp_express</t>
+  </si>
+  <si>
+    <t>查询所有购水信息 添加</t>
+  </si>
+  <si>
+    <t>/campushelp/getwater_purchaseList</t>
   </si>
   <si>
     <t>{
@@ -88,18 +128,41 @@
    String telephone //电话号码
 }</t>
   </si>
+  <si>
+    <t>按编号(wpID) 添加（创建）新的购水信息</t>
+  </si>
+  <si>
+    <t>/campushelp/createwater_purchase</t>
+  </si>
+  <si>
+    <t>按编号(wpID) 删除快递信息</t>
+  </si>
+  <si>
+    <t>/campushelp/deletewater_purchase</t>
+  </si>
+  <si>
+    <t>{
+  Int wpID  //编号
+}</t>
+  </si>
+  <si>
+    <t>按编号(wpID) 修改快递信息</t>
+  </si>
+  <si>
+    <t>/campushelp/updatewater_purchase</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +172,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF505050"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -116,93 +208,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -215,10 +231,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -230,23 +246,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,43 +331,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,139 +511,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,6 +522,69 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -481,21 +614,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -504,54 +622,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -560,10 +630,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -572,142 +642,154 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1057,89 +1139,227 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="22.8888888888889" customWidth="1"/>
-    <col min="2" max="2" width="27.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="33.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="33.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="34.3333333333333" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
     <col min="6" max="6" width="22.3333333333333" customWidth="1"/>
     <col min="7" max="7" width="18.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="124" customHeight="1" spans="1:7">
-      <c r="A2" t="s">
+    <row r="2" ht="160" customHeight="1" spans="1:7">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" ht="115.2" spans="1:7">
-      <c r="A3" t="s">
+    <row r="3" ht="144" spans="1:7">
+      <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" ht="57.6" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" ht="144" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" ht="115.2" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" ht="121" customHeight="1" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>13</v>
+      <c r="D7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" ht="63" customHeight="1" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" ht="122" customHeight="1" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21996" windowHeight="7584"/>
+    <workbookView windowWidth="15768" windowHeight="6564"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="40">
   <si>
     <t>描述</t>
   </si>
@@ -150,6 +150,27 @@
   </si>
   <si>
     <t>/campushelp/updatewater_purchase</t>
+  </si>
+  <si>
+    <t>查询所有收藏夹信息</t>
+  </si>
+  <si>
+    <t>/campushelp/getcolloctionList</t>
+  </si>
+  <si>
+    <t>{
+   Int cID  //编号
+   Int gID  //商品编号
+   String gName //商品名称
+   Float gPrice //商品价格
+   String gImage //商品图片
+}</t>
+  </si>
+  <si>
+    <t>添加（创建）新的收藏夹信息</t>
+  </si>
+  <si>
+    <t>/campushelp/createcolloction</t>
   </si>
 </sst>
 </file>
@@ -179,50 +200,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -230,9 +207,122 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,77 +336,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,37 +352,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,19 +484,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,31 +496,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,85 +520,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,6 +543,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -540,11 +585,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,38 +618,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -613,15 +643,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -630,10 +651,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -642,133 +663,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -785,11 +806,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1139,10 +1160,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1234,7 +1255,7 @@
       <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -1257,7 +1278,7 @@
       <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -1297,13 +1318,13 @@
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -1320,13 +1341,13 @@
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -1343,13 +1364,13 @@
       <c r="A9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -1359,6 +1380,52 @@
         <v>18</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" ht="100.8" spans="1:7">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" ht="100.8" spans="1:7">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>19</v>
       </c>
     </row>
